--- a/data/trans_orig/P14B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0138FC00-27D8-443D-8D50-B0ECA9C92712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE8D934-1892-490D-9EB0-68177FF37183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB245AB0-11FF-47E5-B697-F6E3C3B2609F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91D17310-1971-472B-BD75-32726D868115}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="341">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -76,16 +76,16 @@
     <t>64,04%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>71,82%</t>
+    <t>71,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>83,29%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>35,96%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
   </si>
   <si>
     <t>9,0%</t>
@@ -118,16 +118,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,18%</t>
+    <t>28,25%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>67,55%</t>
   </si>
   <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>71,91%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -196,55 +196,55 @@
     <t>60,33%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>72,66%</t>
   </si>
   <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>27,34%</t>
   </si>
   <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -253,55 +253,55 @@
     <t>70,32%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>70,58%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>29,68%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>29,42%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -310,736 +310,757 @@
     <t>70,13%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>66,02%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>78,97%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo dolor de espalda le limita en 2015 (Tasa respuesta: 10,75%)</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
     <t>69,14%</t>
   </si>
   <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>30,86%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo dolor de espalda le limita en 2015 (Tasa respuesta: 10,75%)</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>45,01%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>65,21%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>34,79%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D1E803-96E3-48FD-8D70-126667685602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58EEB6-1246-4430-8DE9-CE84A35F925B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2368,10 +2389,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>630</v>
@@ -2380,13 +2401,13 @@
         <v>682988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2422,13 @@
         <v>103959</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -2416,13 +2437,13 @@
         <v>157145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>241</v>
@@ -2431,13 +2452,13 @@
         <v>261104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2514,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC2C52E-6EF6-4536-8353-55866D4E1E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947661B1-1A71-4A79-8B96-048CED14617D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2531,7 +2552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2638,13 +2659,13 @@
         <v>7704</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2653,13 +2674,13 @@
         <v>14906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2668,13 +2689,13 @@
         <v>22609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2710,13 @@
         <v>4150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2704,13 +2725,13 @@
         <v>3706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2719,13 +2740,13 @@
         <v>7857</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2814,13 @@
         <v>31537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -2808,13 +2829,13 @@
         <v>61925</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -2823,13 +2844,13 @@
         <v>93462</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2865,13 @@
         <v>17635</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -2859,13 +2880,13 @@
         <v>20105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -2874,13 +2895,13 @@
         <v>37740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2969,13 @@
         <v>62678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -2966,10 +2987,10 @@
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -2978,13 +2999,13 @@
         <v>167583</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3020,13 @@
         <v>18094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -3017,10 +3038,10 @@
         <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -3029,13 +3050,13 @@
         <v>54162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3124,13 @@
         <v>34496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3118,13 +3139,13 @@
         <v>61684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3133,13 +3154,13 @@
         <v>96181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3175,13 @@
         <v>15079</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -3169,13 +3190,13 @@
         <v>22043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -3184,13 +3205,13 @@
         <v>37121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3279,13 @@
         <v>56422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -3273,13 +3294,13 @@
         <v>121069</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -3288,13 +3309,13 @@
         <v>177491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3330,13 @@
         <v>29694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3324,13 +3345,13 @@
         <v>46329</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -3339,13 +3360,13 @@
         <v>76023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3434,13 @@
         <v>192837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -3428,13 +3449,13 @@
         <v>364489</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>507</v>
@@ -3443,13 +3464,13 @@
         <v>557326</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3485,13 @@
         <v>84651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>119</v>
@@ -3479,13 +3500,13 @@
         <v>128252</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -3494,13 +3515,13 @@
         <v>212903</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3577,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A66CC0-4D16-43CA-9AC4-557797F2404D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B306E8AE-E97F-4BD5-B0AA-86D84036C4D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3594,7 +3615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3701,13 +3722,13 @@
         <v>17602</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -3716,13 +3737,13 @@
         <v>30343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -3731,13 +3752,13 @@
         <v>47945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3773,13 @@
         <v>7152</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -3767,13 +3788,13 @@
         <v>13097</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -3782,13 +3803,13 @@
         <v>20249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3877,13 @@
         <v>73804</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>254</v>
@@ -3871,13 +3892,13 @@
         <v>129280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>348</v>
@@ -3886,13 +3907,13 @@
         <v>203084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3928,13 @@
         <v>34553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -3922,13 +3943,13 @@
         <v>52802</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>140</v>
@@ -3937,13 +3958,13 @@
         <v>87355</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4032,13 @@
         <v>111824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -4026,13 +4047,13 @@
         <v>236378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>514</v>
@@ -4041,13 +4062,13 @@
         <v>348202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4083,13 @@
         <v>57766</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -4077,13 +4098,13 @@
         <v>102527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>216</v>
@@ -4092,13 +4113,13 @@
         <v>160293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4187,13 @@
         <v>77071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -4181,13 +4202,13 @@
         <v>157548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>326</v>
@@ -4196,13 +4217,13 @@
         <v>234618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4238,13 @@
         <v>67823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -4232,13 +4253,13 @@
         <v>93871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -4247,13 +4268,13 @@
         <v>161695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4342,13 @@
         <v>115921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>358</v>
@@ -4336,13 +4357,13 @@
         <v>234764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>496</v>
@@ -4351,13 +4372,13 @@
         <v>350685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4393,13 @@
         <v>69946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -4387,13 +4408,13 @@
         <v>78475</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -4402,13 +4423,13 @@
         <v>148421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4497,13 @@
         <v>396221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>1300</v>
@@ -4491,13 +4512,13 @@
         <v>788312</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>1773</v>
@@ -4506,13 +4527,13 @@
         <v>1184534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4548,13 @@
         <v>237240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>515</v>
@@ -4542,13 +4563,13 @@
         <v>340773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>776</v>
@@ -4557,13 +4578,13 @@
         <v>578012</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,7 +4640,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE8D934-1892-490D-9EB0-68177FF37183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E19AE3-926E-446C-9805-17567C1CF884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91D17310-1971-472B-BD75-32726D868115}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15B5AA43-80A3-4701-9C60-1F9351CF0C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="339">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,16 +76,16 @@
     <t>64,04%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>71,75%</t>
+    <t>72,37%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>83,29%</t>
   </si>
   <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>35,96%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>9,0%</t>
@@ -118,625 +118,625 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,25%</t>
+    <t>27,63%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>55,88%</t>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
+    <t>33,78%</t>
   </si>
   <si>
     <t>66,02%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo dolor de espalda le limita en 2015 (Tasa respuesta: 10,75%)</t>
+    <t>Población cuyo dolor de espalda le limita en 2016 (Tasa respuesta: 10,75%)</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>71,24%</t>
   </si>
   <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>28,76%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>73,67%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>65,52%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>34,48%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
@@ -958,9 +958,6 @@
     <t>62,37%</t>
   </si>
   <si>
-    <t>54,99%</t>
-  </si>
-  <si>
     <t>69,14%</t>
   </si>
   <si>
@@ -986,9 +983,6 @@
   </si>
   <si>
     <t>30,86%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
   </si>
   <si>
     <t>25,05%</t>
@@ -1472,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58EEB6-1246-4430-8DE9-CE84A35F925B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09320EEA-AA81-4BC4-8136-52C4184D836D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2535,7 +2529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947661B1-1A71-4A79-8B96-048CED14617D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2513BAF-97C5-486D-ADAA-76B09BADB389}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3598,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B306E8AE-E97F-4BD5-B0AA-86D84036C4D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8B4BE0-A753-459C-8ECF-54212F2E052D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,10 +4339,10 @@
         <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>358</v>
@@ -4357,13 +4351,13 @@
         <v>234764</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>496</v>
@@ -4372,13 +4366,13 @@
         <v>350685</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4387,13 @@
         <v>69946</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -4408,13 +4402,13 @@
         <v>78475</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -4423,13 +4417,13 @@
         <v>148421</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4491,13 @@
         <v>396221</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>1300</v>
@@ -4512,13 +4506,13 @@
         <v>788312</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>1773</v>
@@ -4527,13 +4521,13 @@
         <v>1184534</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4542,13 @@
         <v>237240</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>515</v>
@@ -4563,13 +4557,13 @@
         <v>340773</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>776</v>
@@ -4578,13 +4572,13 @@
         <v>578012</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
